--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna4-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna4-Epha1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H2">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I2">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J2">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.160945333333332</v>
+        <v>1.334383666666667</v>
       </c>
       <c r="N2">
-        <v>24.482836</v>
+        <v>4.003151</v>
       </c>
       <c r="O2">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="P2">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="Q2">
-        <v>2.423803484315111</v>
+        <v>0.5000091277094445</v>
       </c>
       <c r="R2">
-        <v>21.814231358836</v>
+        <v>4.500082149385</v>
       </c>
       <c r="S2">
-        <v>0.1527345152102426</v>
+        <v>0.05136317006331784</v>
       </c>
       <c r="T2">
-        <v>0.1527345152102426</v>
+        <v>0.05136317006331784</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H3">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I3">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J3">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>2.477462333333333</v>
       </c>
       <c r="N3">
-        <v>7.432387</v>
+        <v>7.432386999999999</v>
       </c>
       <c r="O3">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="P3">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="Q3">
-        <v>0.7358071388207779</v>
+        <v>0.9283340400272222</v>
       </c>
       <c r="R3">
-        <v>6.622264249387</v>
+        <v>8.355006360245</v>
       </c>
       <c r="S3">
-        <v>0.04636644322168842</v>
+        <v>0.09536261746244211</v>
       </c>
       <c r="T3">
-        <v>0.04636644322168842</v>
+        <v>0.09536261746244214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H4">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I4">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J4">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.982489999999999</v>
+        <v>6.358226000000001</v>
       </c>
       <c r="N4">
-        <v>17.94747</v>
+        <v>19.074678</v>
       </c>
       <c r="O4">
-        <v>0.3599378396991113</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="P4">
-        <v>0.3599378396991114</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="Q4">
-        <v>1.776801524163333</v>
+        <v>2.382501461503334</v>
       </c>
       <c r="R4">
-        <v>15.99121371747</v>
+        <v>21.44251315353</v>
       </c>
       <c r="S4">
-        <v>0.1119640767801725</v>
+        <v>0.2447411876336984</v>
       </c>
       <c r="T4">
-        <v>0.1119640767801726</v>
+        <v>0.2447411876336984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.204641</v>
       </c>
       <c r="I5">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J5">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.160945333333332</v>
+        <v>1.334383666666667</v>
       </c>
       <c r="N5">
-        <v>24.482836</v>
+        <v>4.003151</v>
       </c>
       <c r="O5">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="P5">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="Q5">
-        <v>3.277003115764</v>
+        <v>0.535817758199</v>
       </c>
       <c r="R5">
-        <v>29.493028041876</v>
+        <v>4.822359823791</v>
       </c>
       <c r="S5">
-        <v>0.2064983755768869</v>
+        <v>0.0550415924673151</v>
       </c>
       <c r="T5">
-        <v>0.2064983755768869</v>
+        <v>0.05504159246731509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.204641</v>
       </c>
       <c r="I6">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J6">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>2.477462333333333</v>
       </c>
       <c r="N6">
-        <v>7.432387</v>
+        <v>7.432386999999999</v>
       </c>
       <c r="O6">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="P6">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="Q6">
-        <v>0.9948175675630001</v>
+        <v>0.994817567563</v>
       </c>
       <c r="R6">
         <v>8.953358108067</v>
       </c>
       <c r="S6">
-        <v>0.0626878292269234</v>
+        <v>0.1021921022497954</v>
       </c>
       <c r="T6">
-        <v>0.0626878292269234</v>
+        <v>0.1021921022497954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.204641</v>
       </c>
       <c r="I7">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J7">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.982489999999999</v>
+        <v>6.358226000000001</v>
       </c>
       <c r="N7">
-        <v>17.94747</v>
+        <v>19.074678</v>
       </c>
       <c r="O7">
-        <v>0.3599378396991113</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="P7">
-        <v>0.3599378396991114</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="Q7">
-        <v>2.40225091203</v>
+        <v>2.553126575622001</v>
       </c>
       <c r="R7">
-        <v>21.62025820827</v>
+        <v>22.978139180598</v>
       </c>
       <c r="S7">
-        <v>0.1513763928621223</v>
+        <v>0.2622685611712527</v>
       </c>
       <c r="T7">
-        <v>0.1513763928621223</v>
+        <v>0.2622685611712526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.256238</v>
+        <v>0.18094</v>
       </c>
       <c r="H8">
-        <v>0.7687139999999999</v>
+        <v>0.54282</v>
       </c>
       <c r="I8">
-        <v>0.2683723671219638</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J8">
-        <v>0.2683723671219639</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.160945333333332</v>
+        <v>1.334383666666667</v>
       </c>
       <c r="N8">
-        <v>24.482836</v>
+        <v>4.003151</v>
       </c>
       <c r="O8">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="P8">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="Q8">
-        <v>2.091144310322666</v>
+        <v>0.2414433806466666</v>
       </c>
       <c r="R8">
-        <v>18.820298792904</v>
+        <v>2.17299042582</v>
       </c>
       <c r="S8">
-        <v>0.1317721979271924</v>
+        <v>0.02480214206814144</v>
       </c>
       <c r="T8">
-        <v>0.1317721979271925</v>
+        <v>0.02480214206814144</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.256238</v>
+        <v>0.18094</v>
       </c>
       <c r="H9">
-        <v>0.7687139999999999</v>
+        <v>0.54282</v>
       </c>
       <c r="I9">
-        <v>0.2683723671219638</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J9">
-        <v>0.2683723671219639</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>2.477462333333333</v>
       </c>
       <c r="N9">
-        <v>7.432387</v>
+        <v>7.432386999999999</v>
       </c>
       <c r="O9">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="P9">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="Q9">
-        <v>0.6348199933686666</v>
+        <v>0.4482720345933333</v>
       </c>
       <c r="R9">
-        <v>5.713379940317999</v>
+        <v>4.034448311339999</v>
       </c>
       <c r="S9">
-        <v>0.04000279913795494</v>
+        <v>0.0460485048601483</v>
       </c>
       <c r="T9">
-        <v>0.04000279913795494</v>
+        <v>0.04604850486014832</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.256238</v>
+        <v>0.18094</v>
       </c>
       <c r="H10">
-        <v>0.7687139999999999</v>
+        <v>0.54282</v>
       </c>
       <c r="I10">
-        <v>0.2683723671219638</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J10">
-        <v>0.2683723671219639</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.982489999999999</v>
+        <v>6.358226000000001</v>
       </c>
       <c r="N10">
-        <v>17.94747</v>
+        <v>19.074678</v>
       </c>
       <c r="O10">
-        <v>0.3599378396991113</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="P10">
-        <v>0.3599378396991114</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="Q10">
-        <v>1.53294127262</v>
+        <v>1.15045741244</v>
       </c>
       <c r="R10">
-        <v>13.79647145358</v>
+        <v>10.35411671196</v>
       </c>
       <c r="S10">
-        <v>0.09659737005681647</v>
+        <v>0.1181801220238887</v>
       </c>
       <c r="T10">
-        <v>0.0965973700568165</v>
+        <v>0.1181801220238887</v>
       </c>
     </row>
   </sheetData>
